--- a/Dados/Debug/Resumo/Cromossomas 0-50.xlsx
+++ b/Dados/Debug/Resumo/Cromossomas 0-50.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Geração 2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Geração 0" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N15"/>
+  <dimension ref="A1:O15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -499,6 +499,11 @@
           <t>Carrinha 13</t>
         </is>
       </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Carrinha 14</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -507,43 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>17</v>
+        <v>20.5</v>
       </c>
       <c r="C2" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>18.5</v>
+      </c>
+      <c r="E2" t="n">
+        <v>11</v>
+      </c>
+      <c r="F2" t="n">
         <v>15</v>
       </c>
-      <c r="D2" t="n">
-        <v>14</v>
-      </c>
-      <c r="E2" t="n">
-        <v>19</v>
-      </c>
-      <c r="F2" t="n">
-        <v>14</v>
-      </c>
       <c r="G2" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="H2" t="n">
-        <v>30.5</v>
+        <v>14.5</v>
       </c>
       <c r="I2" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="J2" t="n">
-        <v>14.5</v>
+        <v>18.5</v>
       </c>
       <c r="K2" t="n">
-        <v>11.5</v>
+        <v>16.5</v>
       </c>
       <c r="L2" t="n">
-        <v>5.5</v>
+        <v>13.5</v>
       </c>
       <c r="M2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N2" t="n">
-        <v>3</v>
+        <v>3.5</v>
+      </c>
+      <c r="O2" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -553,43 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>845.9639498530158</v>
+        <v>826.6477201147468</v>
       </c>
       <c r="C3" t="n">
-        <v>852.6811236145309</v>
+        <v>847.1018256071999</v>
       </c>
       <c r="D3" t="n">
-        <v>849.4227841450397</v>
+        <v>849.7399989729945</v>
       </c>
       <c r="E3" t="n">
-        <v>836.2507243851859</v>
+        <v>840.4360323610586</v>
       </c>
       <c r="F3" t="n">
-        <v>815.5131844166528</v>
+        <v>844.0278743834953</v>
       </c>
       <c r="G3" t="n">
-        <v>851.8886326387941</v>
+        <v>837.7661160183751</v>
       </c>
       <c r="H3" t="n">
-        <v>856.0524794915103</v>
+        <v>837.3611217383122</v>
       </c>
       <c r="I3" t="n">
-        <v>832.1501126671991</v>
+        <v>822.8634267973677</v>
       </c>
       <c r="J3" t="n">
-        <v>750.536057530891</v>
+        <v>843.6410299366605</v>
       </c>
       <c r="K3" t="n">
-        <v>760.6779290515093</v>
+        <v>798.6035567850038</v>
       </c>
       <c r="L3" t="n">
-        <v>703.7565057217614</v>
+        <v>746.6797411018299</v>
       </c>
       <c r="M3" t="n">
-        <v>664.2847212713563</v>
+        <v>694.727358963275</v>
       </c>
       <c r="N3" t="n">
-        <v>659.2731286126411</v>
+        <v>659.4945649450252</v>
+      </c>
+      <c r="O3" t="n">
+        <v>634</v>
       </c>
     </row>
     <row r="4">
@@ -599,43 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>64.68321815293565</v>
+        <v>122.4952205568319</v>
       </c>
       <c r="C4" t="n">
-        <v>90.20016238990758</v>
+        <v>98.54565247423187</v>
       </c>
       <c r="D4" t="n">
-        <v>96.7626089450761</v>
+        <v>72.21899158238119</v>
       </c>
       <c r="E4" t="n">
-        <v>145.2507243851859</v>
+        <v>90.39272829490795</v>
       </c>
       <c r="F4" t="n">
-        <v>138.0929456659392</v>
+        <v>66.39372216127973</v>
       </c>
       <c r="G4" t="n">
-        <v>142.9811093327079</v>
+        <v>109.9521107667206</v>
       </c>
       <c r="H4" t="n">
-        <v>108.8658778843292</v>
+        <v>164.3611217383122</v>
       </c>
       <c r="I4" t="n">
-        <v>127.1350959545153</v>
+        <v>123.3243835447827</v>
       </c>
       <c r="J4" t="n">
-        <v>72.19091348481948</v>
+        <v>154.6410299366605</v>
       </c>
       <c r="K4" t="n">
-        <v>99.67792905150922</v>
+        <v>110.9654244400098</v>
       </c>
       <c r="L4" t="n">
-        <v>66.75650572176146</v>
+        <v>77.67974110182996</v>
       </c>
       <c r="M4" t="n">
-        <v>33.28472127135627</v>
+        <v>59.72735896327504</v>
       </c>
       <c r="N4" t="n">
-        <v>32.27312861264111</v>
+        <v>25.40827534038878</v>
+      </c>
+      <c r="O4" t="n">
+        <v>3.545491304972495</v>
       </c>
     </row>
     <row r="5">
@@ -643,43 +657,46 @@
         <v>0</v>
       </c>
       <c r="B5" t="n">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="C5" t="n">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="D5" t="n">
-        <v>5</v>
+        <v>72</v>
       </c>
       <c r="E5" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="F5" t="n">
-        <v>65</v>
+        <v>11</v>
       </c>
       <c r="G5" t="n">
-        <v>53</v>
+        <v>9</v>
       </c>
       <c r="H5" t="n">
-        <v>59</v>
+        <v>83</v>
       </c>
       <c r="I5" t="n">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="J5" t="n">
-        <v>70</v>
+        <v>17</v>
       </c>
       <c r="K5" t="n">
-        <v>80</v>
+        <v>1</v>
       </c>
       <c r="L5" t="n">
-        <v>82</v>
+        <v>24</v>
       </c>
       <c r="M5" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="N5" t="n">
-        <v>83</v>
+        <v>29</v>
+      </c>
+      <c r="O5" t="n">
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -687,250 +704,265 @@
         <v>1</v>
       </c>
       <c r="B6" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" t="n">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="F6" t="n">
+        <v>82</v>
+      </c>
+      <c r="G6" t="n">
         <v>79</v>
       </c>
-      <c r="G6" t="n">
-        <v>10</v>
-      </c>
       <c r="H6" t="n">
+        <v>39</v>
+      </c>
+      <c r="I6" t="n">
+        <v>76</v>
+      </c>
+      <c r="J6" t="n">
+        <v>25</v>
+      </c>
+      <c r="K6" t="n">
+        <v>49</v>
+      </c>
+      <c r="L6" t="n">
         <v>55</v>
       </c>
-      <c r="I6" t="n">
-        <v>39</v>
-      </c>
-      <c r="J6" t="n">
+      <c r="M6" t="n">
         <v>38</v>
       </c>
-      <c r="K6" t="n">
-        <v>25</v>
-      </c>
-      <c r="L6" t="n">
-        <v>62</v>
-      </c>
-      <c r="M6" t="n">
-        <v>35</v>
-      </c>
-      <c r="N6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>70</v>
+      </c>
+      <c r="O6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B7" t="n">
-        <v>13</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="E7" t="n">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="F7" t="n">
-        <v>2</v>
+        <v>66</v>
       </c>
       <c r="G7" t="n">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="H7" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="I7" t="n">
+        <v>62</v>
+      </c>
+      <c r="J7" t="n">
+        <v>71</v>
+      </c>
+      <c r="K7" t="n">
+        <v>6</v>
+      </c>
+      <c r="L7" t="n">
+        <v>59</v>
+      </c>
+      <c r="M7" t="n">
         <v>7</v>
       </c>
-      <c r="J7" t="n">
-        <v>1</v>
-      </c>
-      <c r="K7" t="n">
-        <v>21</v>
-      </c>
-      <c r="L7" t="n">
-        <v>24</v>
-      </c>
-      <c r="M7" t="inlineStr"/>
       <c r="N7" t="inlineStr"/>
+      <c r="O7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B8" t="n">
-        <v>61</v>
+        <v>75</v>
       </c>
       <c r="C8" t="n">
-        <v>66</v>
+        <v>32</v>
       </c>
       <c r="D8" t="n">
-        <v>77</v>
+        <v>41</v>
       </c>
       <c r="E8" t="n">
-        <v>9</v>
+        <v>68</v>
       </c>
       <c r="F8" t="n">
+        <v>31</v>
+      </c>
+      <c r="G8" t="n">
+        <v>10</v>
+      </c>
+      <c r="H8" t="n">
+        <v>80</v>
+      </c>
+      <c r="I8" t="n">
+        <v>36</v>
+      </c>
+      <c r="J8" t="n">
         <v>26</v>
       </c>
-      <c r="G8" t="n">
-        <v>76</v>
-      </c>
-      <c r="H8" t="n">
-        <v>36</v>
-      </c>
-      <c r="I8" t="n">
-        <v>56</v>
-      </c>
-      <c r="J8" t="n">
-        <v>6</v>
-      </c>
       <c r="K8" t="n">
-        <v>74</v>
-      </c>
-      <c r="L8" t="inlineStr"/>
+        <v>2</v>
+      </c>
+      <c r="L8" t="n">
+        <v>15</v>
+      </c>
       <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr"/>
+      <c r="O8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B9" t="n">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="C9" t="n">
-        <v>32</v>
+        <v>73</v>
       </c>
       <c r="D9" t="n">
-        <v>3</v>
+        <v>58</v>
       </c>
       <c r="E9" t="n">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F9" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="G9" t="n">
-        <v>17</v>
+        <v>81</v>
       </c>
       <c r="H9" t="n">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="I9" t="n">
-        <v>78</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>37</v>
+        <v>45</v>
       </c>
       <c r="K9" t="n">
-        <v>47</v>
+        <v>65</v>
       </c>
       <c r="L9" t="inlineStr"/>
       <c r="M9" t="inlineStr"/>
       <c r="N9" t="inlineStr"/>
+      <c r="O9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B10" t="n">
-        <v>63</v>
-      </c>
-      <c r="C10" t="n">
-        <v>68</v>
-      </c>
+        <v>48</v>
+      </c>
+      <c r="C10" t="inlineStr"/>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="n">
-        <v>19</v>
+        <v>54</v>
       </c>
       <c r="F10" t="n">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="G10" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="H10" t="n">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="I10" t="n">
-        <v>71</v>
+        <v>63</v>
       </c>
       <c r="J10" t="n">
-        <v>16</v>
-      </c>
-      <c r="K10" t="inlineStr"/>
+        <v>61</v>
+      </c>
+      <c r="K10" t="n">
+        <v>21</v>
+      </c>
       <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr"/>
       <c r="N10" t="inlineStr"/>
+      <c r="O10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B11" t="n">
-        <v>11</v>
-      </c>
-      <c r="C11" t="n">
-        <v>51</v>
-      </c>
+        <v>77</v>
+      </c>
+      <c r="C11" t="inlineStr"/>
       <c r="D11" t="inlineStr"/>
-      <c r="E11" t="n">
+      <c r="E11" t="inlineStr"/>
+      <c r="F11" t="n">
+        <v>64</v>
+      </c>
+      <c r="G11" t="n">
+        <v>46</v>
+      </c>
+      <c r="H11" t="n">
+        <v>13</v>
+      </c>
+      <c r="I11" t="n">
         <v>18</v>
       </c>
-      <c r="F11" t="inlineStr"/>
-      <c r="G11" t="n">
-        <v>73</v>
-      </c>
-      <c r="H11" t="n">
-        <v>41</v>
-      </c>
-      <c r="I11" t="n">
-        <v>30</v>
-      </c>
-      <c r="J11" t="inlineStr"/>
-      <c r="K11" t="inlineStr"/>
+      <c r="J11" t="n">
+        <v>23</v>
+      </c>
+      <c r="K11" t="n">
+        <v>60</v>
+      </c>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="inlineStr"/>
       <c r="N11" t="inlineStr"/>
+      <c r="O11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B12" t="inlineStr"/>
-      <c r="C12" t="n">
+      <c r="C12" t="inlineStr"/>
+      <c r="D12" t="inlineStr"/>
+      <c r="E12" t="inlineStr"/>
+      <c r="F12" t="n">
         <v>50</v>
       </c>
-      <c r="D12" t="inlineStr"/>
-      <c r="E12" t="n">
-        <v>64</v>
-      </c>
-      <c r="F12" t="inlineStr"/>
       <c r="G12" t="n">
-        <v>28</v>
-      </c>
-      <c r="H12" t="n">
-        <v>45</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="n">
-        <v>44</v>
-      </c>
-      <c r="J12" t="inlineStr"/>
-      <c r="K12" t="inlineStr"/>
+        <v>20</v>
+      </c>
+      <c r="J12" t="n">
+        <v>40</v>
+      </c>
+      <c r="K12" t="n">
+        <v>69</v>
+      </c>
       <c r="L12" t="inlineStr"/>
       <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr"/>
+      <c r="O12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -939,24 +971,19 @@
       <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr"/>
       <c r="D13" t="inlineStr"/>
-      <c r="E13" t="n">
-        <v>23</v>
-      </c>
+      <c r="E13" t="inlineStr"/>
       <c r="F13" t="inlineStr"/>
       <c r="G13" t="n">
-        <v>43</v>
-      </c>
-      <c r="H13" t="n">
-        <v>67</v>
-      </c>
-      <c r="I13" t="n">
-        <v>33</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="H13" t="inlineStr"/>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="inlineStr"/>
+      <c r="O13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -968,17 +995,16 @@
       <c r="E14" t="inlineStr"/>
       <c r="F14" t="inlineStr"/>
       <c r="G14" t="n">
-        <v>31</v>
-      </c>
-      <c r="H14" t="n">
-        <v>20</v>
-      </c>
+        <v>43</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
       <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="inlineStr"/>
       <c r="N14" t="inlineStr"/>
+      <c r="O14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -990,17 +1016,16 @@
       <c r="E15" t="inlineStr"/>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
-        <v>58</v>
-      </c>
-      <c r="H15" t="n">
-        <v>14</v>
-      </c>
+        <v>42</v>
+      </c>
+      <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
       <c r="K15" t="inlineStr"/>
       <c r="L15" t="inlineStr"/>
       <c r="M15" t="inlineStr"/>
       <c r="N15" t="inlineStr"/>
+      <c r="O15" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
